--- a/scalpel/typeinfer/evaluation/evaluation_outputs/nvbn__thefuck.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/nvbn__thefuck.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4870,14 +4870,28 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr"/>
       <c r="B139" s="2" t="inlineStr"/>
-      <c r="C139" s="2" t="inlineStr"/>
-      <c r="D139" s="2" t="inlineStr"/>
-      <c r="E139" s="2" t="inlineStr">
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E139" s="2" t="inlineStr"/>
+      <c r="F139" s="2" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr"/>
+      <c r="B140" s="2" t="inlineStr"/>
+      <c r="C140" s="2" t="inlineStr"/>
+      <c r="D140" s="2" t="inlineStr"/>
+      <c r="E140" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F139" s="2" t="n">
+      <c r="F140" s="2" t="n">
         <v>300</v>
       </c>
     </row>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/nvbn__thefuck.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/nvbn__thefuck.xlsx
@@ -4870,16 +4870,16 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr"/>
       <c r="B139" s="2" t="inlineStr"/>
-      <c r="C139" s="2" t="inlineStr">
+      <c r="C139" s="2" t="inlineStr"/>
+      <c r="D139" s="2" t="inlineStr"/>
+      <c r="E139" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D139" s="2" t="n">
-        <v>3300</v>
-      </c>
-      <c r="E139" s="2" t="inlineStr"/>
-      <c r="F139" s="2" t="inlineStr"/>
+      <c r="F139" s="2" t="n">
+        <v>97.06</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr"/>
@@ -4888,7 +4888,7 @@
       <c r="D140" s="2" t="inlineStr"/>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F140" s="2" t="n">
